--- a/Product/Table/Dragon.xlsx
+++ b/Product/Table/Dragon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Dragon|龙" sheetId="2" r:id="rId1"/>
@@ -451,20 +451,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
-    <col min="8" max="8" width="29.25" customWidth="1"/>
+    <col min="2" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -530,7 +530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -538,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -566,17 +566,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.75" customWidth="1"/>
+    <col min="1" max="4" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,12 +592,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>

--- a/Product/Table/Dragon.xlsx
+++ b/Product/Table/Dragon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>int</t>
   </si>
@@ -93,16 +93,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0, 0, 0, 1, 1, 1, 2, 2, 2, 3, 3, 3, 2, 2, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 2, 2, 2, 1, 2, 2, 2, 2, 1, 2, 2, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 2, 2, 2, 1, 2, 2, 2, 2, 1, 2, 2, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 3, 2, 2, 3, 3, 3, 2, 3, 3, 3, 3, 2, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 3, 2, 2, 3, 3, 3, 2, 3, 3, 3, 3, 2, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 2, 2, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 3, 1, 1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 2, 2, 2, 1, 1, 1, 1, 3, 3, 3, 3, 2, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 1, 1, 1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 2, 2, 1, 1, 1, 2, 2, 2, 3, 3, 3, 2, 2, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 3, 0, 1, 1, 1, 2, 2, 2, 3, 3, 2, 2, 2, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 1, 1, 1, 2, 3, 2, 2, 2, 3, 3, 3, 1, 1, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, 0, 1, 1, 1, 2, 1, 2, 3, 3, 1, 2, 2, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 2, 2, 1, 1, 2, 2, 2, 2, 3, 3, 3, 2, 2, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DraongName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙_2</t>
+  </si>
+  <si>
+    <t>龙_3</t>
+  </si>
+  <si>
+    <t>龙_4</t>
+  </si>
+  <si>
+    <t>龙_5</t>
+  </si>
+  <si>
+    <t>龙_6</t>
+  </si>
+  <si>
+    <t>龙_7</t>
+  </si>
+  <si>
+    <t>龙_8</t>
+  </si>
+  <si>
+    <t>龙_9</t>
+  </si>
+  <si>
+    <t>龙_10</t>
   </si>
 </sst>
 </file>
@@ -449,59 +556,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -510,65 +624,336 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
         <v>60</v>
       </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -599,10 +984,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Product/Table/Dragon.xlsx
+++ b/Product/Table/Dragon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>int</t>
   </si>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DragonJointColors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,82 +89,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0, 0, 0, 1, 1, 1, 2, 2, 2, 3, 3, 3, 2, 2, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1, 1, 2, 2, 2, 1, 2, 2, 2, 2, 1, 2, 2, 2, 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1, 1, 2, 2, 2, 1, 2, 2, 2, 2, 1, 2, 2, 2, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 3, 2, 2, 3, 3, 3, 2, 3, 3, 3, 3, 2, 2, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 3, 2, 2, 3, 3, 3, 2, 3, 3, 3, 3, 2, 2, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 2, 2, 2, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 3, 1, 1, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 2, 2, 2, 1, 1, 1, 1, 3, 3, 3, 3, 2, 2, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 1, 1, 1, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 2, 2, 1, 1, 1, 2, 2, 2, 3, 3, 3, 2, 2, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 3, 0, 1, 1, 1, 2, 2, 2, 3, 3, 2, 2, 2, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 1, 1, 1, 2, 3, 2, 2, 2, 3, 3, 3, 1, 1, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 0, 0, 1, 1, 1, 2, 1, 2, 3, 3, 1, 2, 2, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 2, 2, 1, 1, 2, 2, 2, 2, 3, 3, 3, 2, 2, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DraongName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +138,74 @@
   </si>
   <si>
     <t>龙_10</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 1, 2, 2, 2, 3, 3, 3, 3, 3, 1, 1, 1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 2, 3, 3, 3, 3, 2, 2, 2, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 2, 2, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 4, 4, 4, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 2, 2, 2, 1, 1, 1, 1, 1, 4, 4, 4, 3, 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestroyEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击毁特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageAudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestroyAudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击毁音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,15 +568,14 @@
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -600,22 +595,19 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -627,35 +619,32 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -667,24 +656,21 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -696,24 +682,21 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -725,24 +708,21 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -754,24 +734,21 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -783,24 +760,21 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -812,24 +786,21 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -841,24 +812,21 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -870,24 +838,21 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -899,24 +864,21 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -928,16 +890,13 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -949,77 +908,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.77734375" customWidth="1"/>
+    <col min="1" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Product/Table/Dragon.xlsx
+++ b/Product/Table/Dragon.xlsx
@@ -1,234 +1,350 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Dragon|龙" sheetId="2" r:id="rId1"/>
     <sheet name="DragonJoint|龙骨" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>DraongName</t>
+  </si>
+  <si>
+    <t>NormalMoveSpeed</t>
+  </si>
+  <si>
+    <t>MaxMoveSpeed</t>
+  </si>
+  <si>
+    <t>MaxSpeedDurationTime</t>
+  </si>
+  <si>
+    <t>DragonJointSpacing</t>
+  </si>
+  <si>
+    <t>PositionSmoothness</t>
+  </si>
+  <si>
+    <t>DragonJoints</t>
+  </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>龙名称</t>
+  </si>
+  <si>
+    <t>正常速度</t>
+  </si>
+  <si>
+    <t>最大速度</t>
+  </si>
+  <si>
+    <t>最大速度持续时间</t>
+  </si>
+  <si>
+    <t>节点之间的间距</t>
+  </si>
+  <si>
+    <t>龙_1</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 2, 2, 2, 3, 3, 3, 3, 3, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>龙_2</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 2, 3, 3, 3, 3, 2, 2, 2, 2, 2</t>
+  </si>
+  <si>
+    <t>龙_3</t>
+  </si>
+  <si>
+    <t>1, 1, 2, 2, 2, 1, 2, 2, 2, 2, 1, 2, 2, 2, 2</t>
+  </si>
+  <si>
+    <t>龙_4</t>
+  </si>
+  <si>
+    <t>1, 1, 2, 2, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 3</t>
+  </si>
+  <si>
+    <t>龙_5</t>
+  </si>
+  <si>
+    <t>4, 4, 4, 4, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 3</t>
+  </si>
+  <si>
+    <t>龙_6</t>
+  </si>
+  <si>
+    <t>2, 2, 2, 2, 1, 1, 1, 1, 1, 4, 4, 4, 3, 3, 3</t>
+  </si>
+  <si>
+    <t>龙_7</t>
+  </si>
+  <si>
+    <t>龙_8</t>
+  </si>
+  <si>
+    <t>龙_9</t>
+  </si>
+  <si>
+    <t>龙_10</t>
+  </si>
+  <si>
+    <t>Prefab</t>
   </si>
   <si>
     <t>Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>DamageEffect</t>
+  </si>
+  <si>
+    <t>DamageAudio</t>
+  </si>
+  <si>
+    <t>DestroyEffect</t>
+  </si>
+  <si>
+    <t>DestroyAudio</t>
+  </si>
+  <si>
+    <t>资源</t>
   </si>
   <si>
     <t>节点生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalMoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxSpeedDurationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DragonJointSpacing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositionSmoothness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DragonJoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大速度持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点之间的间距</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 1, 2, 2, 2, 1, 2, 2, 2, 2, 1, 2, 2, 2, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DraongName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙_2</t>
-  </si>
-  <si>
-    <t>龙_3</t>
-  </si>
-  <si>
-    <t>龙_4</t>
-  </si>
-  <si>
-    <t>龙_5</t>
-  </si>
-  <si>
-    <t>龙_6</t>
-  </si>
-  <si>
-    <t>龙_7</t>
-  </si>
-  <si>
-    <t>龙_8</t>
-  </si>
-  <si>
-    <t>龙_9</t>
-  </si>
-  <si>
-    <t>龙_10</t>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>节点类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 1, 1, 2, 2, 2, 3, 3, 3, 3, 3, 1, 1, 1, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 1, 2, 3, 3, 3, 3, 2, 2, 2, 2, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 1, 2, 2, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4, 4, 4, 4, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 2, 2, 2, 1, 1, 1, 1, 1, 4, 4, 4, 3, 3, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DestroyEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击音效</t>
   </si>
   <si>
     <t>击毁特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageAudio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DestroyAudio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>击毁音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product/Game/Prefab/DragonPart.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +357,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -252,38 +554,324 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -367,7 +955,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -541,96 +1129,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="D2" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6607142857143" customWidth="1"/>
+    <col min="3" max="3" width="19.2232142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.2232142857143" customWidth="1"/>
+    <col min="5" max="5" width="22.6607142857143" customWidth="1"/>
+    <col min="6" max="6" width="18.4375" customWidth="1"/>
+    <col min="7" max="7" width="20.6607142857143" customWidth="1"/>
+    <col min="8" max="8" width="35.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -639,12 +1222,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -656,21 +1239,21 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -682,21 +1265,21 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -708,21 +1291,21 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -734,21 +1317,21 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -760,16 +1343,16 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -786,21 +1369,21 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -812,21 +1395,21 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -838,21 +1421,21 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -864,21 +1447,21 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -890,163 +1473,178 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.55357142857143" customWidth="1"/>
+    <col min="2" max="2" width="53.2232142857143" customWidth="1"/>
+    <col min="3" max="3" width="18.7767857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.3303571428571" customWidth="1"/>
+    <col min="5" max="5" width="14.6607142857143" customWidth="1"/>
+    <col min="6" max="6" width="16.2232142857143" customWidth="1"/>
+    <col min="7" max="8" width="14.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:8">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>